--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.3224712865531871</v>
+        <v>-0.3225525858620018</v>
       </c>
       <c r="D2">
-        <v>0.747135835390162</v>
+        <v>0.7500794634550545</v>
       </c>
       <c r="E2">
         <v>10.43818135404258</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.5036808254994709</v>
+        <v>-0.4021485301734843</v>
       </c>
       <c r="D3">
-        <v>0.6145517612798712</v>
+        <v>0.6914551560940825</v>
       </c>
       <c r="E3">
         <v>10.43818135404258</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.5390303695492</v>
+        <v>-2.12083054957058</v>
       </c>
       <c r="D4">
-        <v>0.01120560987971819</v>
+        <v>0.04544542231610049</v>
       </c>
       <c r="E4">
         <v>10.43818135404258</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.644035581267171</v>
+        <v>-2.209759277230824</v>
       </c>
       <c r="D5">
-        <v>0.008268700395049677</v>
+        <v>0.03783166011216088</v>
       </c>
       <c r="E5">
         <v>10.43818135404258</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.276805368503944</v>
+        <v>-0.2154264278911612</v>
       </c>
       <c r="D6">
-        <v>0.7819636304682869</v>
+        <v>0.8314195293148137</v>
       </c>
       <c r="E6">
         <v>10.77799748369907</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.808439068320576</v>
+        <v>-1.654450946312143</v>
       </c>
       <c r="D7">
-        <v>0.07071703193692058</v>
+        <v>0.1122344321331386</v>
       </c>
       <c r="E7">
         <v>10.77799748369907</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.488713404431368</v>
+        <v>-2.234511832715092</v>
       </c>
       <c r="D8">
-        <v>0.01291688244695233</v>
+        <v>0.03592908887941393</v>
       </c>
       <c r="E8">
         <v>10.77799748369907</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.617585524358595</v>
+        <v>-1.840782545278833</v>
       </c>
       <c r="D9">
-        <v>0.1059397875688626</v>
+        <v>0.07918127762550098</v>
       </c>
       <c r="E9">
         <v>11.05162212773874</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.62447612050307</v>
+        <v>-2.384512789139425</v>
       </c>
       <c r="D10">
-        <v>0.008756939062203539</v>
+        <v>0.02615155055424601</v>
       </c>
       <c r="E10">
         <v>11.05162212773874</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.4834451810956735</v>
+        <v>-0.5937314598320715</v>
       </c>
       <c r="D11">
-        <v>0.6288427123627791</v>
+        <v>0.5587476843922476</v>
       </c>
       <c r="E11">
         <v>13.27549586727538</v>
